--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyrics/Downloads/Cors 50 bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A72042A-B34C-8049-8784-0D48C908DF1F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AA48D6-438F-5C45-9EB7-508EAEE281AB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>pin</t>
   </si>
   <si>
-    <t>martin.bungay1144@gmail.com</t>
-  </si>
-  <si>
-    <t>Brendoq</t>
+    <t>Brendol</t>
+  </si>
+  <si>
+    <t>martin.bungay134@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -534,7 +534,7 @@
         <v>7761486236</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" t="s">
         <v>21</v>
